--- a/data/spring-cloud-shop/shop-seller-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-seller-api_structure.xlsx
@@ -399,21 +399,24 @@
     <t>password</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>avatar</t>
   </si>
   <si>
-    <t>username</t>
+    <t>token</t>
   </si>
   <si>
     <t>userId</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
+    <t>birthday</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -423,22 +426,19 @@
     <t>age</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>sellerStatus</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>sellerName</t>
-  </si>
-  <si>
-    <t>sellerStatus</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>longitude</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -7006,13 +7006,13 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -7020,13 +7020,13 @@
         <v>50</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>57</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -7040,7 +7040,7 @@
         <v>120</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -7062,13 +7062,13 @@
         <v>63</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -7076,7 +7076,7 @@
         <v>63</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>120</v>
@@ -7090,7 +7090,7 @@
         <v>63</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>120</v>
@@ -7104,13 +7104,13 @@
         <v>63</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -7118,13 +7118,13 @@
         <v>63</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -7132,13 +7132,13 @@
         <v>63</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -7146,13 +7146,13 @@
         <v>63</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -7160,13 +7160,13 @@
         <v>63</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
@@ -7174,13 +7174,13 @@
         <v>63</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -7188,13 +7188,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -7208,7 +7208,7 @@
         <v>120</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -7216,13 +7216,13 @@
         <v>47</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -7230,7 +7230,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>120</v>
@@ -7244,13 +7244,13 @@
         <v>47</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -7258,7 +7258,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>120</v>
@@ -7272,7 +7272,7 @@
         <v>47</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>120</v>
@@ -7286,13 +7286,13 @@
         <v>47</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>120</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
@@ -7328,7 +7328,7 @@
         <v>88</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>120</v>
